--- a/fuentes/contenidos/grado05/guion12/SolicitudGrafica_CN_05_12_CO_REC150.xlsx
+++ b/fuentes/contenidos/grado05/guion12/SolicitudGrafica_CN_05_12_CO_REC150.xlsx
@@ -510,9 +510,6 @@
     <t>Recurso número 10 (para el Cuaderno de Estudio no se escribe nada)</t>
   </si>
   <si>
-    <t>Cuaderno de Estudio</t>
-  </si>
-  <si>
     <t>Fotografía</t>
   </si>
   <si>
@@ -544,6 +541,9 @@
   </si>
   <si>
     <t>CN_05_12_CO_REC150</t>
+  </si>
+  <si>
+    <t>Interativo</t>
   </si>
 </sst>
 </file>
@@ -2480,7 +2480,7 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2553,7 +2553,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D4" s="100"/>
       <c r="E4" s="5"/>
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="102"/>
       <c r="E5" s="5"/>
@@ -2609,7 +2609,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>39</v>
@@ -2678,19 +2678,19 @@
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="83">
         <v>259317008</v>
       </c>
       <c r="C10" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="E10" s="68" t="s">
         <v>146</v>
-      </c>
-      <c r="E10" s="68" t="s">
-        <v>147</v>
       </c>
       <c r="F10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
@@ -2713,19 +2713,19 @@
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="86">
         <v>41688898</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F11" s="14" t="str">
         <f t="shared" ref="F11:F74" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
@@ -2748,19 +2748,19 @@
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="86">
         <v>65228404</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2783,19 +2783,19 @@
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="86">
         <v>131553944</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E13" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2818,19 +2818,19 @@
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" s="86">
         <v>230649307</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" s="14" t="str">
         <f t="shared" si="0"/>
